--- a/player_d_dash/defense-dash-overall_SeasonType_Playoffs_Season_2019-20.xlsx
+++ b/player_d_dash/defense-dash-overall_SeasonType_Playoffs_Season_2019-20.xlsx
@@ -1689,32 +1689,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kemba Walker</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1734,17 +1734,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -1754,32 +1754,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>Kemba Walker</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1799,17 +1799,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2844,12 +2844,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>-6.2</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2869,12 +2869,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2909,12 +2909,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-6.2</t>
+          <t>-6.1</t>
         </is>
       </c>
     </row>
@@ -2924,17 +2924,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Malcolm Brogdon</t>
+          <t>Dennis Schroder</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2944,12 +2944,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -2989,17 +2989,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dennis Schroder</t>
+          <t>Malcolm Brogdon</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3009,12 +3009,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>12.4</t>
         </is>
       </c>
     </row>
@@ -3314,32 +3314,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Joe Harris</t>
+          <t>Justin Holiday</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3359,17 +3359,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -3379,22 +3379,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Justin Holiday</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>-7.1</t>
         </is>
       </c>
     </row>
@@ -3444,32 +3444,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Joe Harris</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3494,12 +3494,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -4744,32 +4744,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Eric Gordon</t>
+          <t>Paul Millsap</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-7.2</t>
         </is>
       </c>
     </row>
@@ -4809,32 +4809,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Paul Millsap</t>
+          <t>Eric Gordon</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-7.2</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>D.J. Augustin</t>
+          <t>Markelle Fultz</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Markelle Fultz</t>
+          <t>D.J. Augustin</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -6759,22 +6759,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Enes Freedom</t>
+          <t>Marvin Williams</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6804,17 +6804,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -6824,22 +6824,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Marvin Williams</t>
+          <t>Enes Freedom</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mike Muscala</t>
+          <t>Tyler Johnson</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -7879,17 +7879,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
@@ -7929,12 +7929,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tyler Johnson</t>
+          <t>Mike Muscala</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -7944,17 +7944,17 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7974,17 +7974,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -7994,17 +7994,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Jarrell Brantley</t>
+          <t>Torrey Craig</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -8014,12 +8014,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8039,17 +8039,17 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>-35.6</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -8059,17 +8059,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Torrey Craig</t>
+          <t>Jarrell Brantley</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8079,12 +8079,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -8094,7 +8094,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-35.6</t>
         </is>
       </c>
     </row>
@@ -8774,17 +8774,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Brad Wanamaker</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -8794,12 +8794,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>10.2</t>
         </is>
       </c>
     </row>
@@ -8839,17 +8839,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Brad Wanamaker</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -8859,12 +8859,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8884,17 +8884,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -9684,22 +9684,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Dzanan Musa</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -9814,22 +9814,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Dzanan Musa</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9859,17 +9859,17 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-4.0</t>
         </is>
       </c>
     </row>
@@ -10074,32 +10074,32 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Michael Kidd-Gilchrist</t>
+          <t>P.J. Dozier</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10119,17 +10119,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>14.3</t>
         </is>
       </c>
     </row>
@@ -10204,32 +10204,32 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>P.J. Dozier</t>
+          <t>Michael Kidd-Gilchrist</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>-7.1</t>
         </is>
       </c>
     </row>
@@ -10399,32 +10399,32 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ersan Ilyasova</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>29.6</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-16.6</t>
         </is>
       </c>
     </row>
@@ -10464,32 +10464,32 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>Ersan Ilyasova</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-16.6</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -10529,32 +10529,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Keita Bates-Diop</t>
+          <t>Rayjon Tucker</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10574,17 +10574,17 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>-43.5</t>
         </is>
       </c>
     </row>
@@ -10594,32 +10594,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ben McLemore</t>
+          <t>Keita Bates-Diop</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10639,17 +10639,17 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -10659,17 +10659,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Rayjon Tucker</t>
+          <t>Ben McLemore</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -10679,12 +10679,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -10694,7 +10694,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-43.5</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -10789,32 +10789,32 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Justin Anderson</t>
+          <t>Rondae Hollis-Jefferson</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10834,17 +10834,17 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -10854,32 +10854,32 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Rondae Hollis-Jefferson</t>
+          <t>Justin Anderson</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>14.1</t>
         </is>
       </c>
     </row>
@@ -11439,22 +11439,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Bruno Caboclo</t>
+          <t>Andre Roberson</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -11489,12 +11489,12 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>-8.1</t>
+          <t>-11.5</t>
         </is>
       </c>
     </row>
@@ -11504,22 +11504,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Kyle O'Quinn</t>
+          <t>Carsen Edwards</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11549,17 +11549,17 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-46.5</t>
         </is>
       </c>
     </row>
@@ -11569,22 +11569,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Andre Roberson</t>
+          <t>Bruno Caboclo</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -11619,12 +11619,12 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-11.5</t>
+          <t>-8.1</t>
         </is>
       </c>
     </row>
@@ -11634,32 +11634,32 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Tyler Cook</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11679,17 +11679,17 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>-38.6</t>
         </is>
       </c>
     </row>
@@ -11699,32 +11699,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Patrick Patterson</t>
+          <t>Kyle Korver</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11744,17 +11744,17 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>34.8</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -11764,22 +11764,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Carsen Edwards</t>
+          <t>BJ Johnson</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -11799,7 +11799,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-46.5</t>
+          <t>-7.7</t>
         </is>
       </c>
     </row>
@@ -11829,22 +11829,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tyler Cook</t>
+          <t>Kyle O'Quinn</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -11864,7 +11864,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11874,17 +11874,17 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>-38.6</t>
+          <t>-3.3</t>
         </is>
       </c>
     </row>
@@ -11894,32 +11894,32 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Kyle Korver</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11939,17 +11939,17 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>10.3</t>
         </is>
       </c>
     </row>
@@ -12024,17 +12024,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BJ Johnson</t>
+          <t>Patrick Patterson</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -12074,12 +12074,12 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>41.1</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-7.7</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -12284,17 +12284,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Jared Dudley</t>
+          <t>Solomon Hill</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12329,17 +12329,17 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>68.8</t>
+          <t>18.8</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>-26.6</t>
         </is>
       </c>
     </row>
@@ -12414,17 +12414,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Solomon Hill</t>
+          <t>Jared Dudley</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-26.6</t>
+          <t>24.4</t>
         </is>
       </c>
     </row>
@@ -12479,32 +12479,32 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bol Bol</t>
+          <t>Jaylen Adams</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12524,17 +12524,17 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>34.7</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-23.2</t>
+          <t>45.3</t>
         </is>
       </c>
     </row>
@@ -12544,32 +12544,32 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Jaylen Adams</t>
+          <t>Bol Bol</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>34.7</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>-23.2</t>
         </is>
       </c>
     </row>
@@ -12804,17 +12804,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Frank Mason III</t>
+          <t>Chris Clemons</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -12839,7 +12839,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12849,17 +12849,17 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-41.5</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -12869,22 +12869,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>DeMarre Carroll</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12914,17 +12914,17 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>-39.5</t>
         </is>
       </c>
     </row>
@@ -12934,32 +12934,32 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Troy Daniels</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12979,17 +12979,17 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>30.7</t>
         </is>
       </c>
     </row>
@@ -12999,22 +12999,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Josh Reaves</t>
+          <t>Frank Mason III</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -13049,12 +13049,12 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-42.6</t>
+          <t>-41.5</t>
         </is>
       </c>
     </row>
@@ -13064,32 +13064,32 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Miye Oni</t>
+          <t>Norvel Pelle</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -13099,7 +13099,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -13109,17 +13109,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>-40.7</t>
+          <t>-26.6</t>
         </is>
       </c>
     </row>
@@ -13129,22 +13129,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Norvel Pelle</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -13179,12 +13179,12 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-26.6</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -13259,22 +13259,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Chris Clemons</t>
+          <t>Josh Reaves</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -13304,17 +13304,17 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>-42.6</t>
         </is>
       </c>
     </row>
@@ -13324,32 +13324,32 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Troy Daniels</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -13359,7 +13359,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -13369,17 +13369,17 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
@@ -13389,32 +13389,32 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DeMarre Carroll</t>
+          <t>Miye Oni</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -13439,12 +13439,12 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-39.5</t>
+          <t>-40.7</t>
         </is>
       </c>
     </row>
@@ -13454,22 +13454,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Rodney McGruder</t>
+          <t>Mike Scott</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -13504,12 +13504,12 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>-11.9</t>
         </is>
       </c>
     </row>
@@ -13519,17 +13519,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Quinn Cook</t>
+          <t>Rodney McGruder</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -13539,12 +13539,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -13554,7 +13554,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -13564,17 +13564,17 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>21.3</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
@@ -13584,32 +13584,32 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Mike Scott</t>
+          <t>Quinn Cook</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -13629,17 +13629,17 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>-11.9</t>
+          <t>21.3</t>
         </is>
       </c>
     </row>
@@ -13714,22 +13714,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Noah Vonleh</t>
+          <t>Tremont Waters</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -13844,22 +13844,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>J.J. Barea</t>
+          <t>Malcolm Miller</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -13894,12 +13894,12 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>-40.4</t>
+          <t>-41.8</t>
         </is>
       </c>
     </row>
@@ -13974,12 +13974,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Alize Johnson</t>
+          <t>Noah Vonleh</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -14024,12 +14024,12 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>-44.2</t>
+          <t>-45.8</t>
         </is>
       </c>
     </row>
@@ -14039,22 +14039,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Joakim Noah</t>
+          <t>Deonte Burton</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -14089,12 +14089,12 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>-46.4</t>
+          <t>-38.2</t>
         </is>
       </c>
     </row>
@@ -14104,22 +14104,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Malcolm Miller</t>
+          <t>Tacko Fall</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -14154,12 +14154,12 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>-41.8</t>
+          <t>-42.3</t>
         </is>
       </c>
     </row>
@@ -14169,22 +14169,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Deonte Burton</t>
+          <t>Alize Johnson</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -14219,12 +14219,12 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>-38.2</t>
+          <t>-44.2</t>
         </is>
       </c>
     </row>
@@ -14234,22 +14234,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tacko Fall</t>
+          <t>J.J. Barea</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -14284,12 +14284,12 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>40.4</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>-42.3</t>
+          <t>-40.4</t>
         </is>
       </c>
     </row>
@@ -14299,22 +14299,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tremont Waters</t>
+          <t>Joakim Noah</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -14349,12 +14349,12 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>-45.8</t>
+          <t>-46.4</t>
         </is>
       </c>
     </row>
